--- a/pred_ohlcv/54_21/2020-01-20 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 DAC ohlcv.xlsx
@@ -4526,7 +4526,7 @@
         <v>-4222108.3758</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4294987.032799999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4312921.076899999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4352537.610899999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4262181.842299997</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4220939.116199997</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4280573.209199998</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-4746931.511199996</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-4696508.495899997</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-4691258.798599998</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-4735383.851699998</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-4691428.241899998</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-4648907.009299998</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-4692915.226599998</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-4649287.503999998</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-4684172.784699998</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-4734198.016599998</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-4686142.177299998</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-4640667.247299998</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-4594339.849199998</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-5485084.471000001</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-5419229.218900001</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-5405136.7561</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-5340824.5152</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-5401648.7597</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-5439263.61</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-5399900.866</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-5437458.001300001</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5445075.318700001</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-5444606.709000001</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-5402659.988900001</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5373670.710800001</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5385962.290900002</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-5348460.255000003</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-5330360.705100003</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-5304038.669500003</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-5321980.504400003</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-5657308.236800003</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-5660971.827700003</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-5557549.720100003</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-5506700.967100003</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-5590676.732600003</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5554562.425400003</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-5600390.080200003</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-5729722.730000001</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-5480802.759500002</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-5477323.200800002</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-5489826.248700001</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-5524629.459200001</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-5446373.777400001</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-5371965.304900001</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-5466828.9549</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-5467433.1671</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-5420873.726600001</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-5448754.513200001</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-5579489.566800002</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-5035062.2892</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-5050264.6878</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-5010222.3232</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-5010222.3232</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-4956686.6352</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-4999164.6342</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-5012135.2724</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-4991027.6822</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-4795852.7957</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-4379109.9783</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-4295203.186274366</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-4231708.253774365</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-4256490.135974365</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-4230775.937574365</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-4136981.839574365</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-4157248.339674365</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-4093826.355974365</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-4052257.637174365</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-4084008.891274365</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-3735168.9958</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-3695743.9044</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-3733868.6852</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-3764298.6609</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-3764298.6609</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-2107476.323512314</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-2156572.540512315</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-2147961.443412315</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-2188216.661012315</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-2152773.520312315</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-2192075.899212315</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-2131392.925212315</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-2131392.925212315</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-2240836.948012315</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-2226650.950312315</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-2180246.155212314</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-2222233.732612314</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-2186463.835712314</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-1292022.190112314</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-1048537.709112314</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-1084125.580612314</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-1031396.836512314</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-1081505.039012314</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-1044591.190512314</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-1075088.938412314</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-1108664.488512314</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-1060414.289012314</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-1022544.304512314</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-1041710.782512314</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-992623.593912314</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-1032393.948812314</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-1000079.065512314</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-2084540.884512314</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-2600664.447712314</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-1845292.772512315</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-1801911.823912315</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-1757153.764912315</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-1711227.940012315</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-1711227.940012315</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-1751018.053112315</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-1790119.407112315</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-1751025.385312315</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-1787011.478212315</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-1787011.478212315</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-1833352.130812315</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-1775146.153512315</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-1822527.841112315</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-1854280.035812315</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-1811497.332212315</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-1771683.193812315</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-1790642.926712315</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-1749816.453812315</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-1821396.779112315</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-1783052.280612315</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-1822987.211612315</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-1810462.758212315</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-1772773.268512315</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-1816752.634012315</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-1765660.915312315</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-1799822.456212315</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-1764161.443912315</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-1805698.130412315</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-1765073.994412315</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-1723651.619512315</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-1696772.266312315</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-1737768.794412315</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-1783107.205912315</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-1753068.679212315</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1788729.672412315</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-1761229.880012315</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-1804388.153712315</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-1529433.904212315</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-1488958.477712315</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-1532284.396912315</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-1488880.109612315</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-1538950.807212315</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-1491073.916812315</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-1491073.916812315</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-1537574.683112315</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-1504468.168812315</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-1524281.551112315</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-1594506.973712315</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-1554385.023212315</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-1571368.995012315</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-1544943.046612315</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-1518413.679912315</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-1552875.470012315</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-1511346.038312315</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-1470028.137212315</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-1458679.181612315</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-1503255.368012315</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-1454142.725812315</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-1454142.725812315</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-1468200.748512315</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-1432091.145012315</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-1521049.547712315</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-1477789.316812315</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-1547751.551912315</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-1501279.244712315</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-1550810.947112315</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-1550810.947112315</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-1625988.775412315</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-1592498.423312315</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-1646000.790212315</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-1625445.594612315</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-1625445.594612315</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-1624155.957112315</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-1568442.766612315</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-1529300.980312315</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-1560819.090512315</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-1497438.829412315</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-1442776.451012315</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-1442776.451012315</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-1478597.211612315</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-1450107.722512315</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-1435076.513012315</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-1394238.403812315</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-1448496.514212315</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-1587958.205612315</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-1705494.318312315</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-1487188.544912314</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-1593311.681312314</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-1664648.380812314</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-1645472.803612314</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-1309308.394412314</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-1273116.893912314</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-1342010.886112314</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-1298577.788612314</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-1337246.430212314</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-1296073.451812314</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-1338202.513912314</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-1338202.513912314</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-1290788.758112314</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-1290788.758112314</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-944662.2887123143</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-944662.2887123143</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-892538.4424123144</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-920593.4580123144</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-876406.2691123144</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-917146.8187123145</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-1012025.241612314</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-1112848.420612314</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-1068897.855112314</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-1125162.639012314</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-1087398.195512314</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-1130270.313512314</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-1082652.448612314</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-1128020.454812314</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-1146792.500612314</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-1100028.783612314</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-1164240.477412314</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-1215777.511712314</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-1311958.759812314</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-1299943.759812314</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-1400194.386412314</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-1400194.386412314</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-1400194.386412314</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-1352649.176412314</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-1404166.073512314</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-1447057.945212314</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-1486857.295212314</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-1449188.065912314</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-5035387.459512311</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-5193469.089312311</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-5349372.469912311</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-5539712.562212312</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-5496597.302312312</v>
       </c>
       <c r="H1236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-5452911.588312312</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-5480249.157812312</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-5441434.822412312</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-5461524.267212312</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-5355067.058712312</v>
       </c>
       <c r="H1246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-5355067.058712312</v>
       </c>
       <c r="H1247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-4556633.149712311</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 DAC ohlcv.xlsx
@@ -4526,7 +4526,7 @@
         <v>-4222108.3758</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4294987.032799999</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4312921.076899999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4352537.610899999</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4262181.842299997</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4220939.116199997</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4280573.209199998</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-4706752.423699996</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-4693607.702799996</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-4746931.511199996</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-4710254.707899996</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-4696508.495899997</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-4696508.495899997</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-4701736.500199997</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-4745344.538899997</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-4691258.798599998</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-4735383.851699998</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-4691428.241899998</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-4648907.009299998</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-4692915.226599998</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-4649287.503999998</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-4684172.784699998</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-4734198.016599998</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-4686142.177299998</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-4640667.247299998</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-4594339.849199998</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4714092.138199999</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4691364.837899999</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4637828.800699999</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4723908.886899997</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-5009950.038999997</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-4977027.190799997</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-5012480.810299997</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-4984578.224899997</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-4965879.718699996</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-4898105.986999996</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-4950407.334099998</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-5121517.918499996</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-5089195.659299997</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-5004144.659299997</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-5057031.036699997</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-5006410.468199997</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-4964079.086899998</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-4945547.739299997</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-4986730.578399997</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-4939909.349199997</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-4996593.177299997</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-4948899.890599997</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-4911545.069999997</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-4869693.198699997</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-4829654.681999997</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-4797216.911699997</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-4739871.503399997</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-4774146.474499997</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-4762059.649899997</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-4811028.805099997</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-4773418.345999997</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-4800404.901599997</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-4889006.144199996</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4896846.591499996</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-4869375.659999996</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-4902634.831699996</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-4926459.286399998</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-5390923.5135</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-5427676.6431</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-5394564.2465</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-5378479.544500001</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-5330091.221500001</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-5382539.203400001</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-5510543.709200001</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-5532123.999800001</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-5485084.471000001</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-5442910.122100001</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-5381167.314300002</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-5337287.956500001</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-5334158.2174</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-5378288.7681</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-5402037.7921</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-5402037.7921</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-5445399.810500001</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-5419229.218900001</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-5467406.5042</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-5492484.620300001</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-5433430.8629</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-5387693.6632</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-5405136.7561</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-5340824.5152</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-5360852.3244</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-5405404.3635</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-5443585.7395</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-5401648.7597</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-5439263.61</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-5399900.866</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-5437458.001300001</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5408036.713</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5445075.318700001</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-5402069.363500001</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-5444606.709000001</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-5402659.988900001</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-5432944.428500001</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-5388353.767800001</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-5439489.029700002</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5373670.710800001</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-5420184.772500002</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5385962.290900002</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-5348460.255000003</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5375077.521000003</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-5330360.705100003</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-5330360.705100003</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-5386370.407000002</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-5342631.884500002</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-5304038.669500003</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-5365580.148500003</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-5321980.504400003</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-5280107.554300003</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-5370207.993000003</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-5657308.236800003</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-5572945.166200003</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-5617347.023100003</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-5660971.827700003</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-5582123.221800003</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-5521525.664000003</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-5559310.629500003</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-5590676.732600003</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5554562.425400003</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-5600390.080200003</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-5729722.730000001</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-5480802.759500002</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-5477323.200800002</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-5522329.585600002</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-5489826.248700001</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-5524629.459200001</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-5446373.777400001</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-5422066.101800001</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-5455253.180600001</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-5371965.304900001</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-5423636.263400001</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-5466828.9549</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-5467433.1671</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-5420873.726600001</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-5448754.513200001</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-5579489.566800002</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-5050264.6878</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-5010222.3232</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-5010222.3232</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-4956686.6352</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-4999164.6342</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-5012135.2724</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-4991027.6822</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-4795852.7957</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-4379109.9783</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-4295203.186274366</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-4231708.253774365</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-4256490.135974365</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-4230775.937574365</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-4136981.839574365</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-4157248.339674365</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-4093826.355974365</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-4052257.637174365</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-4084008.891274365</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-3735168.9958</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-3695743.9044</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-3733868.6852</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-3764298.6609</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-3764298.6609</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-3096001.415212314</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-2163614.916512314</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-2204541.271012314</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-2167924.097112314</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-2213109.351312314</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-2173491.115512314</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-2136862.624912314</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-2184868.376212314</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-2148205.959012314</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-2107476.323512314</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-2107476.323512314</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-2156572.540512315</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-2111829.842812315</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-2147961.443412315</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-2188216.661012315</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-2152773.520312315</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-2192075.899212315</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-2131392.925212315</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-2131392.925212315</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-2240836.948012315</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-2226650.950312315</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-2180246.155212314</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-2186463.835712314</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-1048537.709112314</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-1084125.580612314</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-1031396.836512314</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-1081505.039012314</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-1044591.190512314</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-1075088.938412314</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-1108664.488512314</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-1060414.289012314</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-1022544.304512314</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-1041710.782512314</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-992623.593912314</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-1032393.948812314</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-1000079.065512314</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-2084540.884512314</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-2600664.447712314</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-1825533.308912314</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-1803262.307912315</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-1845292.772512315</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-1801911.823912315</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-1757153.764912315</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-1711227.940012315</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-1711227.940012315</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-1751018.053112315</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-1790119.407112315</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-1751025.385312315</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-1787011.478212315</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-1787011.478212315</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-1833352.130812315</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-1775146.153512315</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-1822527.841112315</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-1854280.035812315</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-1811497.332212315</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-1771683.193812315</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-1790642.926712315</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-1749816.453812315</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-1821396.779112315</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-1783052.280612315</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-1799822.456212315</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-1805698.130412315</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1788729.672412315</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-1488833.734512315</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-1529433.904212315</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-1488958.477712315</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-1532284.396912315</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-1488880.109612315</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-1538950.807212315</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-1491073.916812315</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-1491073.916812315</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-1537574.683112315</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-1504468.168812315</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-1524281.551112315</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-1594506.973712315</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-1554385.023212315</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-1571368.995012315</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-1544943.046612315</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-1518413.679912315</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-1552875.470012315</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-1511346.038312315</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-1470028.137212315</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-1458679.181612315</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-1503255.368012315</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-1454142.725812315</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-1454142.725812315</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-1468200.748512315</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-1432091.145012315</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-1521049.547712315</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-1477789.316812315</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-1547751.551912315</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-1501279.244712315</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-1550810.947112315</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-1550810.947112315</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-1625988.775412315</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-1592498.423312315</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-1646000.790212315</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-1625445.594612315</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-1625445.594612315</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-1624155.957112315</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-1568442.766612315</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-1529300.980312315</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-1560819.090512315</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-1497438.829412315</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-1442776.451012315</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-1442776.451012315</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-1478597.211612315</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-1450107.722512315</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-1435076.513012315</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-1394238.403812315</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-1448496.514212315</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-1587958.205612315</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-1705494.318312315</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-1787367.662612315</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-1583664.161612315</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-1549174.133512315</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-1549174.133512315</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-1569611.970312315</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-1479314.457312315</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-1521397.720612315</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-1475636.110412315</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-1475636.110412315</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-1501828.810412314</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-1562217.898412314</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-1505085.298812314</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-1467666.806212314</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-1479541.440212314</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-1426940.559812314</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-1470418.616012314</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-1584709.025412314</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-1487188.544912314</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-1506589.048012314</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-1551472.628212314</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-1593311.681312314</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-1664648.380812314</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-1682106.037712314</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-1637749.444812314</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-1678683.535512314</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-1612079.483112314</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-1645472.803612314</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-1703313.094312314</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-1309308.394412314</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-1273116.893912314</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-1342010.886112314</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-1298577.788612314</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-1337246.430212314</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-1296073.451812314</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-1338202.513912314</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-1338202.513912314</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-1290788.758112314</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-1290788.758112314</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-944662.2887123143</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-944662.2887123143</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-892538.4424123144</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-920593.4580123144</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-876406.2691123144</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-917146.8187123145</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-1012025.241612314</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-1112848.420612314</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-1068897.855112314</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-1125162.639012314</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-1087398.195512314</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-1130270.313512314</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-1082652.448612314</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-1128020.454812314</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-1146792.500612314</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-1100028.783612314</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-1164240.477412314</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-1215777.511712314</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-1311958.759812314</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-1299943.759812314</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-1400194.386412314</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-1404166.073512314</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-1447057.945212314</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-1486857.295212314</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-1469859.165912314</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-5035387.459512311</v>
       </c>
       <c r="H1219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-5193469.089312311</v>
       </c>
       <c r="H1220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-5539712.562212312</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-5496597.302312312</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-5452911.588312312</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-5434968.305712312</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-5480249.157812312</v>
       </c>
       <c r="H1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-5441434.822412312</v>
       </c>
       <c r="H1240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-5461524.267212312</v>
       </c>
       <c r="H1242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-5279586.810212312</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-5355067.058712312</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-5355067.058712312</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-4556633.149712311</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
